--- a/Question_Sets/Situational judgment/Negotiation.xlsx
+++ b/Question_Sets/Situational judgment/Negotiation.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You work for a plastics manufacturing company and are negotiating with supplier X to sell you dye. Supplier X has the best dyes, but supplier Y also sells dye, though of a slightly lower quality. If you cannot negotiate a suitable price with supplier X, you are prepared to get your dye from supplier Y.  Which of the following strategies is most likely to help you get the best price from supplier X?', 'ques_type': 2, 'options': ['Discuss tentatively with supplier Y to see what price they can offer before starting your discussions with supplier X.', 'Initiate discussions with suppliers X and Y at the same time.', 'Initiate discussions with supplier X and start a negotiation with supplier Y if you cannot negotiate the price you need.', 'Tell supplier X at the beginning of discussions that you are considering purchasing from supplier Y.'], 'score': 'Discuss tentatively with supplier Y to see what price they can offer before starting your discussions with supplier X.'}, {'title': 'You are meeting with a new supplier for the first time to negotiate a supply contract for spare machinery parts.  Where should you start the discussion?', 'ques_type': 2, 'options': ['Your needs and constraints', 'Your constraints and your supplier’s strategic interests', 'Your supplier’s strategic interests and your needs', 'The pricing of the machine parts and your supplier’s strategic interests'], 'score': 'Your supplier’s strategic interests and your needs'}, {'title': 'You are in the middle of a negotiation with a customer to get a large maintenance contract for their numerous air-conditioning units. You need to get a contract with this customer because you are well below your targets. However, your counterparty has just made an aggressive demand and is waiting for you to respond to it.  What is the best way to move forward?', 'ques_type': 2, 'options': ['State that you are going to take a break without explaining why. State when you will come back.', 'State that you are going to take a break without explaining why. Do not state when you will come back.', 'State that you are going to take a break to think about your counterparty’s demand. State when you will come back.', 'State that you are going to take a break to think about your counterparty’s demand. Do not state when you will come back.'], 'score': 'State that you are going to take a break without explaining why. State when you will come back.'}, {'title': 'You are negotiating a commercial contract with a prospective customer. They have just stated that your named competitor offers better contractual terms and that you should make an effort to offer terms similar to your competitor’s. You doubt that your competitor has offered terms significantly better and believe that your prospective customer is bluffing so that you will offer a better deal.  How should you respond to the prospective customer?', 'ques_type': 2, 'options': ['“I doubt our competitor is offering you better overall value.”', '“What is our competitor offering you?”', '“What can you get with us that you can’t get from our competitor?”', '“Since you are here, there is something that interests you in our offer.”'], 'score': '“What can you get with us that you can’t get from our competitor?”'}]</t>
+    <t>questions = [
+    {
+        "title": "You work for a plastics manufacturing company and are negotiating with supplier X to sell you dye. Supplier X has the best dyes, but supplier Y also sells dye, though of a slightly lower quality. If you cannot negotiate a suitable price with supplier X, you are prepared to get your dye from supplier Y.  Which of the following strategies is most likely to help you get the best price from supplier X?",
+        "ques_type": 2,
+        "options": [
+            "Discuss tentatively with supplier Y to see what price they can offer before starting your discussions with supplier X.",
+            "Initiate discussions with suppliers X and Y at the same time.",
+            "Initiate discussions with supplier X and start a negotiation with supplier Y if you cannot negotiate the price you need.",
+            "Tell supplier X at the beginning of discussions that you are considering purchasing from supplier Y."
+        ],
+        "score": "Discuss tentatively with supplier Y to see what price they can offer before starting your discussions with supplier X."
+    },
+    {
+        "title": "You are meeting with a new supplier for the first time to negotiate a supply contract for spare machinery parts.  Where should you start the discussion?",
+        "ques_type": 2,
+        "options": [
+            "Your needs and constraints",
+            "Your constraints and your supplier\u2019s strategic interests",
+            "Your supplier\u2019s strategic interests and your needs",
+            "The pricing of the machine parts and your supplier\u2019s strategic interests"
+        ],
+        "score": "Your supplier\u2019s strategic interests and your needs"
+    },
+    {
+        "title": "You are in the middle of a negotiation with a customer to get a large maintenance contract for their numerous air-conditioning units. You need to get a contract with this customer because you are well below your targets. However, your counterparty has just made an aggressive demand and is waiting for you to respond to it.  What is the best way to move forward?",
+        "ques_type": 2,
+        "options": [
+            "State that you are going to take a break without explaining why. State when you will come back.",
+            "State that you are going to take a break without explaining why. Do not state when you will come back.",
+            "State that you are going to take a break to think about your counterparty\u2019s demand. State when you will come back.",
+            "State that you are going to take a break to think about your counterparty\u2019s demand. Do not state when you will come back."
+        ],
+        "score": "State that you are going to take a break without explaining why. State when you will come back."
+    },
+    {
+        "title": "You are negotiating a commercial contract with a prospective customer. They have just stated that your named competitor offers better contractual terms and that you should make an effort to offer terms similar to your competitor\u2019s. You doubt that your competitor has offered terms significantly better and believe that your prospective customer is bluffing so that you will offer a better deal.  How should you respond to the prospective customer?",
+        "ques_type": 2,
+        "options": [
+            "\u201cI doubt our competitor is offering you better overall value.\u201d",
+            "\u201cWhat is our competitor offering you?\u201d",
+            "\u201cWhat can you get with us that you can\u2019t get from our competitor?\u201d",
+            "\u201cSince you are here, there is something that interests you in our offer.\u201d"
+        ],
+        "score": "\u201cWhat can you get with us that you can\u2019t get from our competitor?\u201d"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
